--- a/data/trans_dic/P16A08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.03425926192647324</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02872439864920696</v>
+        <v>0.02872439864920695</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01208794930088462</v>
+        <v>0.01213985976909789</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01703832295718601</v>
+        <v>0.01717548397663623</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01736719787247187</v>
+        <v>0.01729821565160514</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.008389223911751637</v>
+        <v>0.00804451986198983</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02691579232413819</v>
+        <v>0.02708066753627131</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03363695209706481</v>
+        <v>0.03369050817559566</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02816986360235535</v>
+        <v>0.02877596681351203</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0278274407206267</v>
+        <v>0.02800053521595694</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02276803458383448</v>
+        <v>0.02260278456250135</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02998316354030219</v>
+        <v>0.02892681745008847</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02562991461775459</v>
+        <v>0.02614686550954038</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02181446121335793</v>
+        <v>0.02221010941284682</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03100548347084873</v>
+        <v>0.02960716487571981</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04088561119050067</v>
+        <v>0.04118854534752451</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04117633624463881</v>
+        <v>0.03959808045651737</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03157490708482788</v>
+        <v>0.0303236257307017</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04668425100790615</v>
+        <v>0.0470451295950948</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05656103130071904</v>
+        <v>0.05683653385343627</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05427380597352649</v>
+        <v>0.05542026773927997</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04984040275740102</v>
+        <v>0.04914997972504856</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03726457075459323</v>
+        <v>0.03644470129200954</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04611877834894054</v>
+        <v>0.04574227665672338</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04439623916471808</v>
+        <v>0.04345845695685266</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03743362870944827</v>
+        <v>0.03696705045554112</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01531388847801062</v>
+        <v>0.01453970176606891</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02523717442762366</v>
+        <v>0.02539558640415755</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02092907418772598</v>
+        <v>0.02151956343178634</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02987193072297985</v>
+        <v>0.03054651867533416</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03192917730457898</v>
+        <v>0.03079700778126384</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04779221149369419</v>
+        <v>0.04788172932632814</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04643266151658536</v>
+        <v>0.0459631644778987</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04359835686615248</v>
+        <v>0.04265435281306871</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02539581934220211</v>
+        <v>0.02480235064166507</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0387817068411273</v>
+        <v>0.03837911248486396</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03543347471414551</v>
+        <v>0.03568997317030871</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03901893474258725</v>
+        <v>0.03854499100422361</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02987500008114109</v>
+        <v>0.03022259649133411</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04179047775862803</v>
+        <v>0.04246748749266752</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0365047997962407</v>
+        <v>0.03651058596389004</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04874901055579738</v>
+        <v>0.04928936420291181</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05152394209268739</v>
+        <v>0.05215197103120885</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07016882945802877</v>
+        <v>0.07025456191530045</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06769443933239039</v>
+        <v>0.06601932372889548</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06158141565900102</v>
+        <v>0.05988078005325541</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03684427178107096</v>
+        <v>0.03663538127076925</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05291054098659749</v>
+        <v>0.05318269357264799</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04903311756938104</v>
+        <v>0.04846241573601203</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05150954912095271</v>
+        <v>0.05161379248379414</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.05788135627121382</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04498236035502767</v>
+        <v>0.04498236035502766</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02464869434250449</v>
+        <v>0.0256299174881181</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03055464106651033</v>
+        <v>0.03412414964830137</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0281456796430466</v>
+        <v>0.02949088650556266</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01870323284304462</v>
+        <v>0.01838320656020528</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02393961526709444</v>
+        <v>0.02515946847901398</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04984967323193507</v>
+        <v>0.04855293033545201</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05022178406991347</v>
+        <v>0.04911406953670508</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04414582945358492</v>
+        <v>0.04396253420401279</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02817330289097679</v>
+        <v>0.02861772885433733</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04741529209478299</v>
+        <v>0.04552763530019614</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04498048063706005</v>
+        <v>0.04369727536958213</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03396787606493992</v>
+        <v>0.03424706239828539</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06150358893205735</v>
+        <v>0.06109909581037981</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07530473360448871</v>
+        <v>0.0801911632055904</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06510076009139361</v>
+        <v>0.0694267892161002</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04944212747785095</v>
+        <v>0.04833792809567627</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06481515514531604</v>
+        <v>0.06449252524998761</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09791461495173795</v>
+        <v>0.1007669640776879</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0951262976687717</v>
+        <v>0.09667491362421658</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07765751028851742</v>
+        <v>0.07866558456522581</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05417980650573181</v>
+        <v>0.05548052029404395</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08104169636207785</v>
+        <v>0.08008175128384044</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07385390550036507</v>
+        <v>0.07320606783820056</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05657860285836325</v>
+        <v>0.05733542564334162</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03086078119699471</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03343499013679849</v>
+        <v>0.0334349901367985</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.0391443658550934</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01924956398251143</v>
+        <v>0.01905542058184682</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02812988900041335</v>
+        <v>0.02747356446112817</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02539719729164237</v>
+        <v>0.02511995717358204</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02715203413554409</v>
+        <v>0.0278289665216118</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03283994364509102</v>
+        <v>0.03286401063679439</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04787391780995779</v>
+        <v>0.04756855318600903</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04675115858645416</v>
+        <v>0.04586199416354769</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04294828309116283</v>
+        <v>0.0435404534004489</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02752913238249925</v>
+        <v>0.02738666494807595</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0401367955434976</v>
+        <v>0.03981509244248491</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03777305213098592</v>
+        <v>0.03741149844986229</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03741661881233149</v>
+        <v>0.0376951829183903</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0308453166015012</v>
+        <v>0.03077756683363266</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04102455620978692</v>
+        <v>0.04080474489066057</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03689228650021811</v>
+        <v>0.03765254826813364</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04063595252035267</v>
+        <v>0.04064992077506409</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04652445278689873</v>
+        <v>0.04599224909638291</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06412104182235923</v>
+        <v>0.06284880239035512</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06184954107401436</v>
+        <v>0.06252726549403</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.056112134984256</v>
+        <v>0.05640096514824873</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03621949897416051</v>
+        <v>0.03649390115597236</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05099393735817956</v>
+        <v>0.04975646605113036</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04821300470687196</v>
+        <v>0.04748888947763108</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04635862205065571</v>
+        <v>0.04665840943219712</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12471</v>
+        <v>12525</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16558</v>
+        <v>16692</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13101</v>
+        <v>13049</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4841</v>
+        <v>4642</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>35397</v>
+        <v>35614</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>44824</v>
+        <v>44896</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>28019</v>
+        <v>28622</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>22813</v>
+        <v>22954</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>53433</v>
+        <v>53045</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>69094</v>
+        <v>66660</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>44827</v>
+        <v>45731</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>30471</v>
+        <v>31024</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31989</v>
+        <v>30546</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>39734</v>
+        <v>40029</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31061</v>
+        <v>29871</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18220</v>
+        <v>17498</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>61395</v>
+        <v>61870</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>75373</v>
+        <v>75740</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>53984</v>
+        <v>55124</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>40858</v>
+        <v>40292</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>87454</v>
+        <v>85530</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>106277</v>
+        <v>105410</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>77649</v>
+        <v>76009</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>52288</v>
+        <v>51637</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>25917</v>
+        <v>24607</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>49465</v>
+        <v>49776</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>43457</v>
+        <v>44683</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>66631</v>
+        <v>68136</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>50693</v>
+        <v>48896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>83673</v>
+        <v>83830</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>92322</v>
+        <v>91389</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>94639</v>
+        <v>92590</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>83300</v>
+        <v>81353</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>143911</v>
+        <v>142417</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>144026</v>
+        <v>145068</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>171733</v>
+        <v>169647</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>50560</v>
+        <v>51149</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>81910</v>
+        <v>83237</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>75798</v>
+        <v>75810</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>108738</v>
+        <v>109943</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>81803</v>
+        <v>82800</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>122849</v>
+        <v>122999</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>134597</v>
+        <v>131266</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>133675</v>
+        <v>129984</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>120852</v>
+        <v>120167</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>196340</v>
+        <v>197349</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>199304</v>
+        <v>196984</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>226708</v>
+        <v>227166</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13591</v>
+        <v>14133</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14676</v>
+        <v>16391</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15392</v>
+        <v>16128</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13309</v>
+        <v>13081</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11405</v>
+        <v>11986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>22814</v>
+        <v>22220</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>27579</v>
+        <v>26971</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>32442</v>
+        <v>32307</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>28957</v>
+        <v>29414</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>44475</v>
+        <v>42704</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>49300</v>
+        <v>47893</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>49133</v>
+        <v>49537</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33914</v>
+        <v>33691</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36171</v>
+        <v>38518</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>35603</v>
+        <v>37969</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>35182</v>
+        <v>34397</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30879</v>
+        <v>30725</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>44811</v>
+        <v>46116</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>52238</v>
+        <v>53088</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>57069</v>
+        <v>57810</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>55687</v>
+        <v>57024</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>76016</v>
+        <v>75116</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>80946</v>
+        <v>80236</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>81839</v>
+        <v>82934</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>63052</v>
+        <v>62417</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>95985</v>
+        <v>93745</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>85782</v>
+        <v>84846</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>95553</v>
+        <v>97936</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>110973</v>
+        <v>111054</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>169522</v>
+        <v>168441</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>165130</v>
+        <v>161989</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>159998</v>
+        <v>162204</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>183199</v>
+        <v>182251</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>279079</v>
+        <v>276842</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>261001</v>
+        <v>258503</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>271067</v>
+        <v>273085</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>101035</v>
+        <v>100813</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>139984</v>
+        <v>139234</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>124608</v>
+        <v>127176</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>143006</v>
+        <v>143055</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>157215</v>
+        <v>155417</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>227053</v>
+        <v>222548</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>218459</v>
+        <v>220853</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>209038</v>
+        <v>210114</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>241031</v>
+        <v>242857</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>354571</v>
+        <v>345967</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>333138</v>
+        <v>328135</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>335848</v>
+        <v>338020</v>
       </c>
     </row>
     <row r="20">
